--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.465682</v>
+        <v>1.766179333333333</v>
       </c>
       <c r="H2">
-        <v>238.397046</v>
+        <v>5.298538</v>
       </c>
       <c r="I2">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="J2">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N2">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q2">
-        <v>4567.570745738824</v>
+        <v>101.3053749193951</v>
       </c>
       <c r="R2">
-        <v>41108.13671164942</v>
+        <v>911.748374274556</v>
       </c>
       <c r="S2">
-        <v>0.05594271427397712</v>
+        <v>0.001727436356588696</v>
       </c>
       <c r="T2">
-        <v>0.05594271427397712</v>
+        <v>0.001727436356588696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.465682</v>
+        <v>1.766179333333333</v>
       </c>
       <c r="H3">
-        <v>238.397046</v>
+        <v>5.298538</v>
       </c>
       <c r="I3">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="J3">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P3">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q3">
-        <v>5152.589097077504</v>
+        <v>114.5198297853525</v>
       </c>
       <c r="R3">
-        <v>46373.30187369753</v>
+        <v>1030.678468068172</v>
       </c>
       <c r="S3">
-        <v>0.06310790476489726</v>
+        <v>0.001952766254297656</v>
       </c>
       <c r="T3">
-        <v>0.06310790476489728</v>
+        <v>0.001952766254297656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.465682</v>
+        <v>1.766179333333333</v>
       </c>
       <c r="H4">
-        <v>238.397046</v>
+        <v>5.298538</v>
       </c>
       <c r="I4">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="J4">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N4">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O4">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P4">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q4">
-        <v>2416.050967731885</v>
+        <v>51.74003105645266</v>
       </c>
       <c r="R4">
-        <v>21744.45870958697</v>
+        <v>465.6602795080739</v>
       </c>
       <c r="S4">
-        <v>0.02959132030637612</v>
+        <v>0.0008822593155502259</v>
       </c>
       <c r="T4">
-        <v>0.02959132030637612</v>
+        <v>0.0008822593155502259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.465682</v>
+        <v>1.766179333333333</v>
       </c>
       <c r="H5">
-        <v>238.397046</v>
+        <v>5.298538</v>
       </c>
       <c r="I5">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="J5">
-        <v>0.2316778771755458</v>
+        <v>0.006601878454633805</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N5">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O5">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P5">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q5">
-        <v>6779.658895726313</v>
+        <v>119.6014285665656</v>
       </c>
       <c r="R5">
-        <v>61016.93006153682</v>
+        <v>1076.41285709909</v>
       </c>
       <c r="S5">
-        <v>0.08303593783029525</v>
+        <v>0.002039416528197227</v>
       </c>
       <c r="T5">
-        <v>0.08303593783029527</v>
+        <v>0.002039416528197227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>63.670051</v>
       </c>
       <c r="I6">
-        <v>0.0618755244783475</v>
+        <v>0.07933168317417663</v>
       </c>
       <c r="J6">
-        <v>0.06187552447834749</v>
+        <v>0.07933168317417665</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N6">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q6">
-        <v>1219.887021281711</v>
+        <v>1217.339271265396</v>
       </c>
       <c r="R6">
-        <v>10978.9831915354</v>
+        <v>10956.05344138856</v>
       </c>
       <c r="S6">
-        <v>0.01494093794644817</v>
+        <v>0.02075779411665189</v>
       </c>
       <c r="T6">
-        <v>0.01494093794644817</v>
+        <v>0.02075779411665189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>63.670051</v>
       </c>
       <c r="I7">
-        <v>0.0618755244783475</v>
+        <v>0.07933168317417663</v>
       </c>
       <c r="J7">
-        <v>0.06187552447834749</v>
+        <v>0.07933168317417665</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P7">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q7">
         <v>1376.131189951777</v>
@@ -883,10 +883,10 @@
         <v>12385.180709566</v>
       </c>
       <c r="S7">
-        <v>0.01685458600390607</v>
+        <v>0.02346547802473261</v>
       </c>
       <c r="T7">
-        <v>0.01685458600390607</v>
+        <v>0.02346547802473262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>63.670051</v>
       </c>
       <c r="I8">
-        <v>0.0618755244783475</v>
+        <v>0.07933168317417663</v>
       </c>
       <c r="J8">
-        <v>0.06187552447834749</v>
+        <v>0.07933168317417665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N8">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O8">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P8">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q8">
-        <v>645.2684331251675</v>
+        <v>621.7357346698136</v>
       </c>
       <c r="R8">
-        <v>5807.415898126508</v>
+        <v>5595.621612028322</v>
       </c>
       <c r="S8">
-        <v>0.007903121723514572</v>
+        <v>0.01060169722597214</v>
       </c>
       <c r="T8">
-        <v>0.007903121723514574</v>
+        <v>0.01060169722597214</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>63.670051</v>
       </c>
       <c r="I9">
-        <v>0.0618755244783475</v>
+        <v>0.07933168317417663</v>
       </c>
       <c r="J9">
-        <v>0.06187552447834749</v>
+        <v>0.07933168317417665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N9">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O9">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P9">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q9">
-        <v>1810.681948020019</v>
+        <v>1437.194383904784</v>
       </c>
       <c r="R9">
-        <v>16296.13753218017</v>
+        <v>12934.74945514306</v>
       </c>
       <c r="S9">
-        <v>0.02217687880447868</v>
+        <v>0.02450671380681999</v>
       </c>
       <c r="T9">
-        <v>0.02217687880447868</v>
+        <v>0.02450671380681999</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.385198333333334</v>
+        <v>6.190911333333333</v>
       </c>
       <c r="H10">
-        <v>16.155595</v>
+        <v>18.572734</v>
       </c>
       <c r="I10">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="J10">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N10">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q10">
-        <v>309.5332947288467</v>
+        <v>355.1013092947898</v>
       </c>
       <c r="R10">
-        <v>2785.79965255962</v>
+        <v>3195.911783653108</v>
       </c>
       <c r="S10">
-        <v>0.003791103330244677</v>
+        <v>0.006055107267863512</v>
       </c>
       <c r="T10">
-        <v>0.003791103330244677</v>
+        <v>0.006055107267863513</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.385198333333334</v>
+        <v>6.190911333333333</v>
       </c>
       <c r="H11">
-        <v>16.155595</v>
+        <v>18.572734</v>
       </c>
       <c r="I11">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="J11">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>194.521294</v>
       </c>
       <c r="O11">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P11">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q11">
-        <v>349.1785827488812</v>
+        <v>401.4213611997552</v>
       </c>
       <c r="R11">
-        <v>3142.607244739931</v>
+        <v>3612.792250797796</v>
       </c>
       <c r="S11">
-        <v>0.004276671073685412</v>
+        <v>0.006844946323919299</v>
       </c>
       <c r="T11">
-        <v>0.004276671073685412</v>
+        <v>0.0068449463239193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.385198333333334</v>
+        <v>6.190911333333333</v>
       </c>
       <c r="H12">
-        <v>16.155595</v>
+        <v>18.572734</v>
       </c>
       <c r="I12">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="J12">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N12">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O12">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P12">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q12">
-        <v>163.7299689276956</v>
+        <v>181.3620727006646</v>
       </c>
       <c r="R12">
-        <v>1473.56972034926</v>
+        <v>1632.258654305982</v>
       </c>
       <c r="S12">
-        <v>0.002005332676752582</v>
+        <v>0.003092545073138366</v>
       </c>
       <c r="T12">
-        <v>0.002005332676752582</v>
+        <v>0.003092545073138366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.385198333333334</v>
+        <v>6.190911333333333</v>
       </c>
       <c r="H13">
-        <v>16.155595</v>
+        <v>18.572734</v>
       </c>
       <c r="I13">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="J13">
-        <v>0.01570025307321913</v>
+        <v>0.02314127641214326</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N13">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O13">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P13">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q13">
-        <v>459.441193568739</v>
+        <v>419.2336676243189</v>
       </c>
       <c r="R13">
-        <v>4134.97074211865</v>
+        <v>3773.10300861887</v>
       </c>
       <c r="S13">
-        <v>0.005627145992536456</v>
+        <v>0.007148677747222081</v>
       </c>
       <c r="T13">
-        <v>0.005627145992536456</v>
+        <v>0.007148677747222082</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>236.9265036666667</v>
+        <v>238.3463463333333</v>
       </c>
       <c r="H14">
-        <v>710.779511</v>
+        <v>715.039039</v>
       </c>
       <c r="I14">
-        <v>0.6907463452728877</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="J14">
-        <v>0.6907463452728876</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N14">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q14">
-        <v>13618.18762265262</v>
+        <v>13671.18588710678</v>
       </c>
       <c r="R14">
-        <v>122563.6886038736</v>
+        <v>123040.672983961</v>
       </c>
       <c r="S14">
-        <v>0.1667929018536168</v>
+        <v>0.2331179718535269</v>
       </c>
       <c r="T14">
-        <v>0.1667929018536168</v>
+        <v>0.2331179718535269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>236.9265036666667</v>
+        <v>238.3463463333333</v>
       </c>
       <c r="H15">
-        <v>710.779511</v>
+        <v>715.039039</v>
       </c>
       <c r="I15">
-        <v>0.6907463452728877</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="J15">
-        <v>0.6907463452728876</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>194.521294</v>
       </c>
       <c r="O15">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P15">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q15">
-        <v>15362.41669204525</v>
+        <v>15454.47990297739</v>
       </c>
       <c r="R15">
-        <v>138261.7502284072</v>
+        <v>139090.3191267965</v>
       </c>
       <c r="S15">
-        <v>0.1881558787814353</v>
+        <v>0.2635262983609111</v>
       </c>
       <c r="T15">
-        <v>0.1881558787814353</v>
+        <v>0.2635262983609111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>236.9265036666667</v>
+        <v>238.3463463333333</v>
       </c>
       <c r="H16">
-        <v>710.779511</v>
+        <v>715.039039</v>
       </c>
       <c r="I16">
-        <v>0.6907463452728877</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="J16">
-        <v>0.6907463452728876</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N16">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O16">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P16">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q16">
-        <v>7203.442971334242</v>
+        <v>6982.330236083249</v>
       </c>
       <c r="R16">
-        <v>64830.98674200818</v>
+        <v>62840.97212474924</v>
       </c>
       <c r="S16">
-        <v>0.08822636240723547</v>
+        <v>0.1190611170741497</v>
       </c>
       <c r="T16">
-        <v>0.08822636240723548</v>
+        <v>0.1190611170741497</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>236.9265036666667</v>
+        <v>238.3463463333333</v>
       </c>
       <c r="H17">
-        <v>710.779511</v>
+        <v>715.039039</v>
       </c>
       <c r="I17">
-        <v>0.6907463452728877</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="J17">
-        <v>0.6907463452728876</v>
+        <v>0.8909251619590463</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N17">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O17">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P17">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q17">
-        <v>20213.51654940871</v>
+        <v>16140.24293970604</v>
       </c>
       <c r="R17">
-        <v>181921.6489446783</v>
+        <v>145262.1864573544</v>
       </c>
       <c r="S17">
-        <v>0.2475712022306001</v>
+        <v>0.2752197746704584</v>
       </c>
       <c r="T17">
-        <v>0.2475712022306001</v>
+        <v>0.2752197746704584</v>
       </c>
     </row>
   </sheetData>
